--- a/biology/Médecine/Roflumilast/Roflumilast.xlsx
+++ b/biology/Médecine/Roflumilast/Roflumilast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le roflumilast est une molécule, inhibitrice de la phosphodiestérase 4[2] et utilisée comme médicament dans la bronchopneumopathie chronique obstructive (BPCO). Ce médicament est déconseillé par la revue médicale indépendante Prescrire[3].
+Le roflumilast est une molécule, inhibitrice de la phosphodiestérase 4 et utilisée comme médicament dans la bronchopneumopathie chronique obstructive (BPCO). Ce médicament est déconseillé par la revue médicale indépendante Prescrire.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il diminue le nombre d'exacerbations des BPCO et améliore la fonction ventilatoire[4], que le patient soit traité par bêta-2-mimétiques de longue durée d'action[5] ou par du tiotropium[6]. Cela reste vrai dans les cas sévères, sous corticoïdes et traitements associés[7].
-Testé sous forme d'application locale (crème) dans le psoriasis, il permet la régression des plaques[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il diminue le nombre d'exacerbations des BPCO et améliore la fonction ventilatoire, que le patient soit traité par bêta-2-mimétiques de longue durée d'action ou par du tiotropium. Cela reste vrai dans les cas sévères, sous corticoïdes et traitements associés.
+Testé sous forme d'application locale (crème) dans le psoriasis, il permet la régression des plaques.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il semble améliorer l'équilibre glycémique chez le diabétique de type 2[9], même si ce n'est pas son indication. Il ne semble pas avoir d'incidence sur les maladies cardio-vasculaires[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il semble améliorer l'équilibre glycémique chez le diabétique de type 2, même si ce n'est pas son indication. Il ne semble pas avoir d'incidence sur les maladies cardio-vasculaires.
 </t>
         </is>
       </c>
